--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dkk2</t>
   </si>
   <si>
     <t>Lrp6</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H2">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8838946676232</v>
+        <v>13.123436</v>
       </c>
       <c r="N2">
-        <v>12.8838946676232</v>
+        <v>39.370308</v>
       </c>
       <c r="O2">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="P2">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="Q2">
-        <v>53.81787756325</v>
+        <v>3.108447672310666</v>
       </c>
       <c r="R2">
-        <v>53.81787756325</v>
+        <v>27.976029050796</v>
       </c>
       <c r="S2">
-        <v>0.1537736086038834</v>
+        <v>0.007922264097772991</v>
       </c>
       <c r="T2">
-        <v>0.1537736086038834</v>
+        <v>0.007922264097772993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H3">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.5260067082857</v>
+        <v>34.54668033333333</v>
       </c>
       <c r="N3">
-        <v>34.5260067082857</v>
+        <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="P3">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="Q3">
-        <v>144.220086372163</v>
+        <v>8.182807312674111</v>
       </c>
       <c r="R3">
-        <v>144.220086372163</v>
+        <v>73.64526581406699</v>
       </c>
       <c r="S3">
-        <v>0.4120794821116316</v>
+        <v>0.02085489846576818</v>
       </c>
       <c r="T3">
-        <v>0.4120794821116316</v>
+        <v>0.02085489846576818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H4">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.9909418331941</v>
+        <v>15.12064766666666</v>
       </c>
       <c r="N4">
-        <v>14.9909418331941</v>
+        <v>45.361943</v>
       </c>
       <c r="O4">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="P4">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="Q4">
-        <v>62.61931604921109</v>
+        <v>3.581511887837888</v>
       </c>
       <c r="R4">
-        <v>62.61931604921109</v>
+        <v>32.233606990541</v>
       </c>
       <c r="S4">
-        <v>0.1789219239624872</v>
+        <v>0.009127926874082997</v>
       </c>
       <c r="T4">
-        <v>0.1789219239624872</v>
+        <v>0.009127926874082998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H5">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.7631213080517</v>
+        <v>16.18064633333333</v>
       </c>
       <c r="N5">
-        <v>14.7631213080517</v>
+        <v>48.541939</v>
       </c>
       <c r="O5">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="P5">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="Q5">
-        <v>61.66767701110874</v>
+        <v>3.832585645354777</v>
       </c>
       <c r="R5">
-        <v>61.66767701110874</v>
+        <v>34.493270808193</v>
       </c>
       <c r="S5">
-        <v>0.1762028095045574</v>
+        <v>0.009767819458663786</v>
       </c>
       <c r="T5">
-        <v>0.1762028095045574</v>
+        <v>0.009767819458663788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2368623333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.710587</v>
+      </c>
+      <c r="I6">
+        <v>0.05183995823545984</v>
+      </c>
+      <c r="J6">
+        <v>0.05183995823545985</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.902825333333333</v>
+      </c>
+      <c r="N6">
+        <v>20.708476</v>
+      </c>
+      <c r="O6">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="P6">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="Q6">
+        <v>1.635019315045778</v>
+      </c>
+      <c r="R6">
+        <v>14.715173835412</v>
+      </c>
+      <c r="S6">
+        <v>0.004167049339171886</v>
+      </c>
+      <c r="T6">
+        <v>0.004167049339171888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H7">
+        <v>12.702779</v>
+      </c>
+      <c r="I7">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J7">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.123436</v>
+      </c>
+      <c r="N7">
+        <v>39.370308</v>
+      </c>
+      <c r="O7">
+        <v>0.1528215756229904</v>
+      </c>
+      <c r="P7">
+        <v>0.1528215756229904</v>
+      </c>
+      <c r="Q7">
+        <v>55.56803574288133</v>
+      </c>
+      <c r="R7">
+        <v>500.112321685932</v>
+      </c>
+      <c r="S7">
+        <v>0.1416220251899411</v>
+      </c>
+      <c r="T7">
+        <v>0.1416220251899412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H8">
+        <v>12.702779</v>
+      </c>
+      <c r="I8">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J8">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.54668033333333</v>
+      </c>
+      <c r="N8">
+        <v>103.640041</v>
+      </c>
+      <c r="O8">
+        <v>0.4022938901888023</v>
+      </c>
+      <c r="P8">
+        <v>0.4022938901888023</v>
+      </c>
+      <c r="Q8">
+        <v>146.2796151526599</v>
+      </c>
+      <c r="R8">
+        <v>1316.516536373939</v>
+      </c>
+      <c r="S8">
+        <v>0.3728117264713431</v>
+      </c>
+      <c r="T8">
+        <v>0.3728117264713431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H9">
+        <v>12.702779</v>
+      </c>
+      <c r="I9">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J9">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.12064766666666</v>
+      </c>
+      <c r="N9">
+        <v>45.361943</v>
+      </c>
+      <c r="O9">
+        <v>0.1760789781624335</v>
+      </c>
+      <c r="P9">
+        <v>0.1760789781624335</v>
+      </c>
+      <c r="Q9">
+        <v>64.0247485488441</v>
+      </c>
+      <c r="R9">
+        <v>576.222736939597</v>
+      </c>
+      <c r="S9">
+        <v>0.1631750057482576</v>
+      </c>
+      <c r="T9">
+        <v>0.1631750057482576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H10">
+        <v>12.702779</v>
+      </c>
+      <c r="I10">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J10">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.18064633333333</v>
+      </c>
+      <c r="N10">
+        <v>48.541939</v>
+      </c>
+      <c r="O10">
+        <v>0.1884225950626316</v>
+      </c>
+      <c r="P10">
+        <v>0.1884225950626316</v>
+      </c>
+      <c r="Q10">
+        <v>68.51305814983121</v>
+      </c>
+      <c r="R10">
+        <v>616.617523348481</v>
+      </c>
+      <c r="S10">
+        <v>0.17461401896644</v>
+      </c>
+      <c r="T10">
+        <v>0.17461401896644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H11">
+        <v>12.702779</v>
+      </c>
+      <c r="I11">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J11">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.902825333333333</v>
+      </c>
+      <c r="N11">
+        <v>20.708476</v>
+      </c>
+      <c r="O11">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="P11">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="Q11">
+        <v>29.22835489497822</v>
+      </c>
+      <c r="R11">
+        <v>263.055194054804</v>
+      </c>
+      <c r="S11">
+        <v>0.07449208448451283</v>
+      </c>
+      <c r="T11">
+        <v>0.07449208448451285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.213922</v>
+      </c>
+      <c r="I12">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J12">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.123436</v>
+      </c>
+      <c r="N12">
+        <v>39.370308</v>
+      </c>
+      <c r="O12">
+        <v>0.1528215756229904</v>
+      </c>
+      <c r="P12">
+        <v>0.1528215756229904</v>
+      </c>
+      <c r="Q12">
+        <v>0.9357972253306667</v>
+      </c>
+      <c r="R12">
+        <v>8.422175027975999</v>
+      </c>
+      <c r="S12">
+        <v>0.002384995194569833</v>
+      </c>
+      <c r="T12">
+        <v>0.002384995194569834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.213922</v>
+      </c>
+      <c r="I13">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J13">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.54668033333333</v>
+      </c>
+      <c r="N13">
+        <v>103.640041</v>
+      </c>
+      <c r="O13">
+        <v>0.4022938901888023</v>
+      </c>
+      <c r="P13">
+        <v>0.4022938901888023</v>
+      </c>
+      <c r="Q13">
+        <v>2.463431650089111</v>
+      </c>
+      <c r="R13">
+        <v>22.170884850802</v>
+      </c>
+      <c r="S13">
+        <v>0.006278360833499714</v>
+      </c>
+      <c r="T13">
+        <v>0.006278360833499716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.17714355415312</v>
-      </c>
-      <c r="H6">
-        <v>4.17714355415312</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>6.62085905950828</v>
-      </c>
-      <c r="N6">
-        <v>6.62085905950828</v>
-      </c>
-      <c r="O6">
-        <v>0.07902217581744032</v>
-      </c>
-      <c r="P6">
-        <v>0.07902217581744032</v>
-      </c>
-      <c r="Q6">
-        <v>27.6562787433813</v>
-      </c>
-      <c r="R6">
-        <v>27.6562787433813</v>
-      </c>
-      <c r="S6">
-        <v>0.07902217581744032</v>
-      </c>
-      <c r="T6">
-        <v>0.07902217581744032</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.213922</v>
+      </c>
+      <c r="I14">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J14">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.12064766666666</v>
+      </c>
+      <c r="N14">
+        <v>45.361943</v>
+      </c>
+      <c r="O14">
+        <v>0.1760789781624335</v>
+      </c>
+      <c r="P14">
+        <v>0.1760789781624335</v>
+      </c>
+      <c r="Q14">
+        <v>1.078213063382889</v>
+      </c>
+      <c r="R14">
+        <v>9.703917570445999</v>
+      </c>
+      <c r="S14">
+        <v>0.002747959606293927</v>
+      </c>
+      <c r="T14">
+        <v>0.002747959606293928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.213922</v>
+      </c>
+      <c r="I15">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J15">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.18064633333333</v>
+      </c>
+      <c r="N15">
+        <v>48.541939</v>
+      </c>
+      <c r="O15">
+        <v>0.1884225950626316</v>
+      </c>
+      <c r="P15">
+        <v>0.1884225950626316</v>
+      </c>
+      <c r="Q15">
+        <v>1.153798741639778</v>
+      </c>
+      <c r="R15">
+        <v>10.384188674758</v>
+      </c>
+      <c r="S15">
+        <v>0.002940599074056062</v>
+      </c>
+      <c r="T15">
+        <v>0.002940599074056062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.213922</v>
+      </c>
+      <c r="I16">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J16">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.902825333333333</v>
+      </c>
+      <c r="N16">
+        <v>20.708476</v>
+      </c>
+      <c r="O16">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="P16">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="Q16">
+        <v>0.4922220669857778</v>
+      </c>
+      <c r="R16">
+        <v>4.429998602872001</v>
+      </c>
+      <c r="S16">
+        <v>0.001254488934830398</v>
+      </c>
+      <c r="T16">
+        <v>0.001254488934830399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.026678</v>
+      </c>
+      <c r="H17">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J17">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.123436</v>
+      </c>
+      <c r="N17">
+        <v>39.370308</v>
+      </c>
+      <c r="O17">
+        <v>0.1528215756229904</v>
+      </c>
+      <c r="P17">
+        <v>0.1528215756229904</v>
+      </c>
+      <c r="Q17">
+        <v>0.3501070256079999</v>
+      </c>
+      <c r="R17">
+        <v>3.150963230472</v>
+      </c>
+      <c r="S17">
+        <v>0.000892291140706435</v>
+      </c>
+      <c r="T17">
+        <v>0.0008922911407064352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.026678</v>
+      </c>
+      <c r="H18">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J18">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.54668033333333</v>
+      </c>
+      <c r="N18">
+        <v>103.640041</v>
+      </c>
+      <c r="O18">
+        <v>0.4022938901888023</v>
+      </c>
+      <c r="P18">
+        <v>0.4022938901888023</v>
+      </c>
+      <c r="Q18">
+        <v>0.9216363379326666</v>
+      </c>
+      <c r="R18">
+        <v>8.294727041393999</v>
+      </c>
+      <c r="S18">
+        <v>0.002348904418191285</v>
+      </c>
+      <c r="T18">
+        <v>0.002348904418191286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.026678</v>
+      </c>
+      <c r="H19">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J19">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.12064766666666</v>
+      </c>
+      <c r="N19">
+        <v>45.361943</v>
+      </c>
+      <c r="O19">
+        <v>0.1760789781624335</v>
+      </c>
+      <c r="P19">
+        <v>0.1760789781624335</v>
+      </c>
+      <c r="Q19">
+        <v>0.4033886384513332</v>
+      </c>
+      <c r="R19">
+        <v>3.630497746061999</v>
+      </c>
+      <c r="S19">
+        <v>0.001028085933798899</v>
+      </c>
+      <c r="T19">
+        <v>0.0010280859337989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.026678</v>
+      </c>
+      <c r="H20">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J20">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.18064633333333</v>
+      </c>
+      <c r="N20">
+        <v>48.541939</v>
+      </c>
+      <c r="O20">
+        <v>0.1884225950626316</v>
+      </c>
+      <c r="P20">
+        <v>0.1884225950626316</v>
+      </c>
+      <c r="Q20">
+        <v>0.4316672828806666</v>
+      </c>
+      <c r="R20">
+        <v>3.885005545926</v>
+      </c>
+      <c r="S20">
+        <v>0.001100157563471746</v>
+      </c>
+      <c r="T20">
+        <v>0.001100157563471746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.026678</v>
+      </c>
+      <c r="H21">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J21">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.902825333333333</v>
+      </c>
+      <c r="N21">
+        <v>20.708476</v>
+      </c>
+      <c r="O21">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="P21">
+        <v>0.08038296096314212</v>
+      </c>
+      <c r="Q21">
+        <v>0.1841535742426667</v>
+      </c>
+      <c r="R21">
+        <v>1.657382168184</v>
+      </c>
+      <c r="S21">
+        <v>0.0004693382046269953</v>
+      </c>
+      <c r="T21">
+        <v>0.0004693382046269954</v>
       </c>
     </row>
   </sheetData>
